--- a/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1744,13 +1744,13 @@
         <v>2.75</v>
       </c>
       <c r="J2">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L2">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="M2">
         <v>1.45</v>
@@ -1875,13 +1875,13 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K3">
         <v>3.2</v>
       </c>
       <c r="L3">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
         <v>1.38</v>
@@ -1902,10 +1902,10 @@
         <v>3.34</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
         <v>1.68</v>
@@ -2006,13 +2006,13 @@
         <v>4.33</v>
       </c>
       <c r="J4">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="K4">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>1.48</v>
@@ -2036,7 +2036,7 @@
         <v>2.2</v>
       </c>
       <c r="T4">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4">
         <v>1.95</v>
@@ -2137,13 +2137,13 @@
         <v>3.1</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="K5">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T5">
         <v>1.7</v>
@@ -2268,10 +2268,10 @@
         <v>3.79</v>
       </c>
       <c r="J6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
         <v>2.85</v>
@@ -2295,10 +2295,10 @@
         <v>2.5</v>
       </c>
       <c r="S6">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="T6">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="U6">
         <v>2.1</v>
@@ -2399,13 +2399,13 @@
         <v>3.92</v>
       </c>
       <c r="J7">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
+        <v>2.95</v>
+      </c>
+      <c r="L7">
         <v>3.2</v>
-      </c>
-      <c r="L7">
-        <v>3.15</v>
       </c>
       <c r="M7">
         <v>1.5</v>
@@ -2426,10 +2426,10 @@
         <v>2.8</v>
       </c>
       <c r="S7">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T7">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U7">
         <v>1.91</v>
@@ -2530,13 +2530,13 @@
         <v>5.1</v>
       </c>
       <c r="J8">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L8">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M8">
         <v>1.52</v>
@@ -2557,10 +2557,10 @@
         <v>2.7</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T8">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -2661,13 +2661,13 @@
         <v>3.02</v>
       </c>
       <c r="J9">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="K9">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L9">
-        <v>2.49</v>
+        <v>2.35</v>
       </c>
       <c r="M9">
         <v>1.35</v>
@@ -2688,10 +2688,10 @@
         <v>3.5</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T9">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U9">
         <v>1.67</v>
@@ -2792,13 +2792,13 @@
         <v>3.25</v>
       </c>
       <c r="J10">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="K10">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="L10">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="M10">
         <v>1.44</v>
@@ -2819,10 +2819,10 @@
         <v>2.99</v>
       </c>
       <c r="S10">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="T10">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U10">
         <v>1.91</v>
@@ -2923,13 +2923,13 @@
         <v>3.75</v>
       </c>
       <c r="J11">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="K11">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="M11">
         <v>1.5</v>
@@ -2950,10 +2950,10 @@
         <v>2.71</v>
       </c>
       <c r="S11">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="T11">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -3054,13 +3054,13 @@
         <v>3.9</v>
       </c>
       <c r="J12">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
         <v>1.42</v>
@@ -3081,10 +3081,10 @@
         <v>3.2</v>
       </c>
       <c r="S12">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="U12">
         <v>1.72</v>
@@ -3185,13 +3185,13 @@
         <v>3.75</v>
       </c>
       <c r="J13">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="M13">
         <v>1.42</v>
@@ -3212,10 +3212,10 @@
         <v>3.08</v>
       </c>
       <c r="S13">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U13">
         <v>1.78</v>
@@ -3316,13 +3316,13 @@
         <v>3.4</v>
       </c>
       <c r="J14">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L14">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M14">
         <v>1.42</v>
@@ -3343,10 +3343,10 @@
         <v>3.08</v>
       </c>
       <c r="S14">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U14">
         <v>1.75</v>
@@ -3438,7 +3438,7 @@
         <v>276</v>
       </c>
       <c r="G15">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
         <v>2.25</v>
@@ -3447,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="K15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="M15">
         <v>1.33</v>
@@ -3474,10 +3474,10 @@
         <v>3.6</v>
       </c>
       <c r="S15">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -4102,13 +4102,13 @@
         <v>4.4</v>
       </c>
       <c r="J20">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M20">
         <v>1.42</v>
@@ -5150,13 +5150,13 @@
         <v>1.8</v>
       </c>
       <c r="J28">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L28">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="M28">
         <v>1.29</v>
@@ -5180,7 +5180,7 @@
         <v>1.53</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="U28">
         <v>1.91</v>
@@ -5281,13 +5281,13 @@
         <v>3.5</v>
       </c>
       <c r="J29">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="M29">
         <v>1.44</v>
@@ -5308,10 +5308,10 @@
         <v>3.3</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T29">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -5543,13 +5543,13 @@
         <v>3.1</v>
       </c>
       <c r="J31">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="L31">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="M31">
         <v>1.42</v>
@@ -5570,10 +5570,10 @@
         <v>3.2</v>
       </c>
       <c r="S31">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
         <v>1.75</v>
@@ -5805,13 +5805,13 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K33">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="M33">
         <v>1.33</v>
@@ -5832,10 +5832,10 @@
         <v>4</v>
       </c>
       <c r="S33">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T33">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1.95</v>
@@ -6591,13 +6591,13 @@
         <v>3.41</v>
       </c>
       <c r="J39">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="K39">
         <v>3.5</v>
       </c>
       <c r="L39">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="M39">
         <v>1.38</v>
@@ -6618,10 +6618,10 @@
         <v>3.5</v>
       </c>
       <c r="S39">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="T39">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U39">
         <v>1.66</v>
@@ -7187,10 +7187,10 @@
         <v>2.62</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ43">
         <v>1.28</v>
@@ -7901,13 +7901,13 @@
         <v>4</v>
       </c>
       <c r="J49">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
         <v>1.36</v>
@@ -7928,10 +7928,10 @@
         <v>3.5</v>
       </c>
       <c r="S49">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T49">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U49">
         <v>1.75</v>
@@ -9369,10 +9369,10 @@
         <v>3.75</v>
       </c>
       <c r="S60">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="T60">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="U60">
         <v>1.61</v>
@@ -9997,13 +9997,13 @@
         <v>4</v>
       </c>
       <c r="J65">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="K65">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M65">
         <v>1.25</v>
@@ -11307,13 +11307,13 @@
         <v>2.9</v>
       </c>
       <c r="J75">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="K75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="M75">
         <v>1.37</v>
@@ -11337,7 +11337,7 @@
         <v>1.84</v>
       </c>
       <c r="T75">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="U75">
         <v>1.7</v>
@@ -11569,10 +11569,10 @@
         <v>3.75</v>
       </c>
       <c r="J77">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
         <v>3.8</v>
@@ -11962,13 +11962,13 @@
         <v>7.75</v>
       </c>
       <c r="J80">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="K80">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="L80">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="M80">
         <v>1.27</v>
@@ -12093,13 +12093,13 @@
         <v>2.75</v>
       </c>
       <c r="J81">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="K81">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="L81">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="M81">
         <v>1.35</v>
@@ -12120,10 +12120,10 @@
         <v>3.93</v>
       </c>
       <c r="S81">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T81">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U81">
         <v>1.62</v>
@@ -12224,13 +12224,13 @@
         <v>5</v>
       </c>
       <c r="J82">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="K82">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="M82">
         <v>1.3</v>
@@ -12486,13 +12486,13 @@
         <v>4.5</v>
       </c>
       <c r="J84">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K84">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="M84">
         <v>1.29</v>
@@ -12617,13 +12617,13 @@
         <v>2.88</v>
       </c>
       <c r="J85">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="K85">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="L85">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
         <v>1.4</v>
@@ -12644,10 +12644,10 @@
         <v>3.42</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T85">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U85">
         <v>1.7</v>
@@ -12748,13 +12748,13 @@
         <v>3.25</v>
       </c>
       <c r="J86">
+        <v>2.48</v>
+      </c>
+      <c r="K86">
+        <v>3.13</v>
+      </c>
+      <c r="L86">
         <v>2.55</v>
-      </c>
-      <c r="K86">
-        <v>3.35</v>
-      </c>
-      <c r="L86">
-        <v>2.8</v>
       </c>
       <c r="M86">
         <v>1.4</v>
@@ -12775,10 +12775,10 @@
         <v>3.22</v>
       </c>
       <c r="S86">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T86">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U86">
         <v>1.75</v>
@@ -13237,10 +13237,10 @@
         <v>1.31</v>
       </c>
       <c r="AP89">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="AQ89">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="90" spans="1:43">
@@ -13403,13 +13403,13 @@
         <v>2.55</v>
       </c>
       <c r="J91">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K91">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L91">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="M91">
         <v>1.3</v>
@@ -13430,10 +13430,10 @@
         <v>4.33</v>
       </c>
       <c r="S91">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T91">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="U91">
         <v>1.62</v>
@@ -14085,10 +14085,10 @@
         <v>2.54</v>
       </c>
       <c r="S96">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T96">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U96">
         <v>2</v>
@@ -15499,13 +15499,13 @@
         <v>3.75</v>
       </c>
       <c r="J107">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="K107">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="M107">
         <v>1.4</v>
@@ -15526,10 +15526,10 @@
         <v>3.2</v>
       </c>
       <c r="S107">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="T107">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U107">
         <v>1.69</v>
@@ -15892,13 +15892,13 @@
         <v>3.2</v>
       </c>
       <c r="J110">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="K110">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L110">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="M110">
         <v>1.29</v>
@@ -15919,10 +15919,10 @@
         <v>4.75</v>
       </c>
       <c r="S110">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T110">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="U110">
         <v>1.5</v>
@@ -16285,13 +16285,13 @@
         <v>3.99</v>
       </c>
       <c r="J113">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L113">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="M113">
         <v>1.26</v>
@@ -16312,10 +16312,10 @@
         <v>4.85</v>
       </c>
       <c r="S113">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="U113">
         <v>1.54</v>
@@ -17229,10 +17229,10 @@
         <v>2.67</v>
       </c>
       <c r="S120">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="T120">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U120">
         <v>2</v>
@@ -17857,13 +17857,13 @@
         <v>3.25</v>
       </c>
       <c r="J125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K125">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="L125">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="M125">
         <v>1.42</v>
@@ -17988,13 +17988,13 @@
         <v>3.4</v>
       </c>
       <c r="J126">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K126">
         <v>3.2</v>
       </c>
       <c r="L126">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M126">
         <v>1.5</v>
@@ -18015,10 +18015,10 @@
         <v>2.8</v>
       </c>
       <c r="S126">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T126">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U126">
         <v>1.8</v>
@@ -18051,13 +18051,13 @@
         <v>2.42</v>
       </c>
       <c r="AE126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AF126">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AG126">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="AH126">
         <v>1.28</v>
@@ -18119,13 +18119,13 @@
         <v>3.75</v>
       </c>
       <c r="J127">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M127">
         <v>1.44</v>
@@ -18146,10 +18146,10 @@
         <v>3.1</v>
       </c>
       <c r="S127">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T127">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="U127">
         <v>1.8</v>
@@ -18182,13 +18182,13 @@
         <v>2.75</v>
       </c>
       <c r="AE127">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AF127">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AG127">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="AH127">
         <v>1.22</v>
@@ -18250,13 +18250,13 @@
         <v>4.5</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="M128">
         <v>1.44</v>
@@ -18277,10 +18277,10 @@
         <v>2.8</v>
       </c>
       <c r="S128">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T128">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U128">
         <v>2</v>
@@ -18313,13 +18313,13 @@
         <v>3</v>
       </c>
       <c r="AE128">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AF128">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AG128">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="AH128">
         <v>1.26</v>
@@ -18381,13 +18381,13 @@
         <v>3.4</v>
       </c>
       <c r="J129">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="K129">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="M129">
         <v>1.29</v>
@@ -18408,10 +18408,10 @@
         <v>4.33</v>
       </c>
       <c r="S129">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="T129">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="U129">
         <v>1.53</v>
@@ -18634,22 +18634,22 @@
         <v>392</v>
       </c>
       <c r="G131">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="H131">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I131">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J131">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="K131">
         <v>3</v>
       </c>
       <c r="L131">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="M131">
         <v>1.5</v>
@@ -18670,10 +18670,10 @@
         <v>2.45</v>
       </c>
       <c r="S131">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T131">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U131">
         <v>2.1</v>
@@ -18706,13 +18706,13 @@
         <v>0</v>
       </c>
       <c r="AE131">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="AF131">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="AG131">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AH131">
         <v>1.2</v>
@@ -18765,7 +18765,7 @@
         <v>393</v>
       </c>
       <c r="G132">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H132">
         <v>2.2</v>
@@ -18774,13 +18774,13 @@
         <v>5.5</v>
       </c>
       <c r="J132">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="K132">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M132">
         <v>1.44</v>
@@ -18801,16 +18801,16 @@
         <v>2.93</v>
       </c>
       <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>1.7</v>
+      </c>
+      <c r="U132">
         <v>2.05</v>
       </c>
-      <c r="T132">
-        <v>1.75</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
       <c r="V132">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W132">
         <v>1.24</v>
@@ -18837,13 +18837,13 @@
         <v>2.98</v>
       </c>
       <c r="AE132">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AF132">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="AG132">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AH132">
         <v>1.27</v>
@@ -18905,13 +18905,13 @@
         <v>3.25</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L133">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="M133">
         <v>1.5</v>
@@ -18932,7 +18932,7 @@
         <v>2.68</v>
       </c>
       <c r="S133">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T133">
         <v>1.6</v>
@@ -18968,13 +18968,13 @@
         <v>2.12</v>
       </c>
       <c r="AE133">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AF133">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AG133">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AH133">
         <v>1.23</v>
@@ -19036,13 +19036,13 @@
         <v>5</v>
       </c>
       <c r="J134">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M134">
         <v>1.33</v>
@@ -19063,10 +19063,10 @@
         <v>3.74</v>
       </c>
       <c r="S134">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="T134">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U134">
         <v>1.71</v>
@@ -19167,13 +19167,13 @@
         <v>3.25</v>
       </c>
       <c r="J135">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="K135">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L135">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M135">
         <v>1.44</v>
@@ -19197,7 +19197,7 @@
         <v>2.1</v>
       </c>
       <c r="T135">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U135">
         <v>1.83</v>
@@ -19298,13 +19298,13 @@
         <v>4</v>
       </c>
       <c r="J136">
-        <v>2.49</v>
+        <v>1.98</v>
       </c>
       <c r="K136">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M136">
         <v>1.36</v>
@@ -19325,10 +19325,10 @@
         <v>3.9</v>
       </c>
       <c r="S136">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T136">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U136">
         <v>1.67</v>
@@ -19429,13 +19429,13 @@
         <v>2.88</v>
       </c>
       <c r="J137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K137">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L137">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="M137">
         <v>1.44</v>
@@ -19456,10 +19456,10 @@
         <v>0</v>
       </c>
       <c r="S137">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T137">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U137">
         <v>1.83</v>
@@ -19560,13 +19560,13 @@
         <v>4</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="K138">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="L138">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="M138">
         <v>1.43</v>
@@ -19587,10 +19587,10 @@
         <v>3.04</v>
       </c>
       <c r="S138">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="U138">
         <v>1.82</v>
@@ -19691,13 +19691,13 @@
         <v>4.75</v>
       </c>
       <c r="J139">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="K139">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L139">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M139">
         <v>1.22</v>
@@ -19718,10 +19718,10 @@
         <v>5.35</v>
       </c>
       <c r="S139">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="T139">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -3233,10 +3233,10 @@
         <v>1.67</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AB13">
         <v>2.02</v>
@@ -3364,7 +3364,7 @@
         <v>1.46</v>
       </c>
       <c r="Z14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -3495,10 +3495,10 @@
         <v>1.8</v>
       </c>
       <c r="Z15">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AA15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AB15">
         <v>1.8</v>
@@ -3626,10 +3626,10 @@
         <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AB16">
         <v>1.43</v>
@@ -3757,10 +3757,10 @@
         <v>1.6</v>
       </c>
       <c r="Z17">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AB17">
         <v>1.39</v>

--- a/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -4019,10 +4019,10 @@
         <v>2.17</v>
       </c>
       <c r="Z19">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AB19">
         <v>1.78</v>
